--- a/スキル仕様書0703.xlsx
+++ b/スキル仕様書0703.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>攻擊</t>
     <phoneticPr fontId="2"/>
@@ -100,19 +100,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>技能state終止後，清空判定槽重新開始累計</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>技能終止條件</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CoolDown算法:</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>大部分將queue打完就結束，但也存在回合數未定的技能(可畜力多回/連續攻擊2回後發動，直到脫離攻擊狀態etc)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -275,11 +267,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>引爆敵人身上的毒狀態，依層數多寡造成傷害</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CD2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>按照技能的指令順序依序廣播指令即可發動，不需要連續便可發動(即，輸入錯誤指令也不會中斷，之後從該處繼續廣播便可發動)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>技能發動列表</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(發動之後)技能state終止後，清空判定槽重新開始累計</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大部分將列表打完就結束，但也存在回合數未定的技能(可畜力多回/連續攻擊2回後發動，直到脫離攻擊狀態etc)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>引爆敵人身上的毒狀態，依層數造成傷害</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -657,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A2:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -668,364 +676,375 @@
     <col min="3" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B3" s="1"/>
+      <c r="C3" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B9" s="4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B12" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B11" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="C15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="C14" s="6" t="s">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="2" t="s">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B18" s="4" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B19" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B22" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="C23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="C21" s="7" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="C24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B28" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B29" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>28</v>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B31" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="B34" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="C35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="37" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B37" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="B38" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="B40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="C41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="B44" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="B46" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B48" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="C32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="34" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B35" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" s="5" t="s">
+      <c r="C48" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="C38" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-    </row>
-    <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B41" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B43" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A46" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="B47" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B49" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B50" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B53" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B55" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="C56" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A51" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="5" t="s">
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B58" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B52" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C53" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B55" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B56" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A57" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="B58" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B59" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A60" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B61" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B62" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
